--- a/Code/Results/Cases/Case_8_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.29789440045214</v>
+        <v>20.05516651301582</v>
       </c>
       <c r="C2">
-        <v>15.81751289193981</v>
+        <v>16.35345755509173</v>
       </c>
       <c r="D2">
-        <v>7.898635226546594</v>
+        <v>8.067869194785725</v>
       </c>
       <c r="E2">
-        <v>12.30139187435056</v>
+        <v>12.42933802738567</v>
       </c>
       <c r="F2">
-        <v>24.75277311963155</v>
+        <v>24.1448171852064</v>
       </c>
       <c r="G2">
-        <v>2.085588923140834</v>
+        <v>1.902221306447764</v>
       </c>
       <c r="H2">
-        <v>1.954936887770214</v>
+        <v>2.03502463577756</v>
       </c>
       <c r="I2">
-        <v>2.869371740178905</v>
+        <v>2.969940252747001</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.56961192585952</v>
+        <v>13.0119074141142</v>
       </c>
       <c r="L2">
-        <v>7.438383999361794</v>
+        <v>11.64409270173113</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.659992751168124</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.464408208650688</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.23511230111806</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>16.84978435291429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.22396445723522</v>
+      </c>
+      <c r="S2">
+        <v>16.29873182277891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.95140175534994</v>
+        <v>18.76609778499565</v>
       </c>
       <c r="C3">
-        <v>14.79962040523371</v>
+        <v>15.26279462198373</v>
       </c>
       <c r="D3">
-        <v>7.548586836174668</v>
+        <v>7.723430609960023</v>
       </c>
       <c r="E3">
-        <v>11.75288350452915</v>
+        <v>11.90022361038612</v>
       </c>
       <c r="F3">
-        <v>24.01092243239711</v>
+        <v>23.41888675836633</v>
       </c>
       <c r="G3">
-        <v>2.089802994540254</v>
+        <v>2.452280235320943</v>
       </c>
       <c r="H3">
-        <v>1.720328868445474</v>
+        <v>1.823837293435658</v>
       </c>
       <c r="I3">
-        <v>2.714417055720778</v>
+        <v>2.843309830517483</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.61498899662317</v>
+        <v>13.06164348056758</v>
       </c>
       <c r="L3">
-        <v>7.222708696954294</v>
+        <v>11.78348941472336</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.593450928251332</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.261600970616048</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.28802181612352</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>16.52983806023226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.23969073732444</v>
+      </c>
+      <c r="S3">
+        <v>15.97872001967543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.0713634176109</v>
+        <v>17.92335925225817</v>
       </c>
       <c r="C4">
-        <v>14.1415974531834</v>
+        <v>14.55733507821498</v>
       </c>
       <c r="D4">
-        <v>7.326313272212884</v>
+        <v>7.505649585597002</v>
       </c>
       <c r="E4">
-        <v>11.40286617497537</v>
+        <v>11.56337740676347</v>
       </c>
       <c r="F4">
-        <v>23.55165028661997</v>
+        <v>22.96575400398729</v>
       </c>
       <c r="G4">
-        <v>2.09247853290931</v>
+        <v>2.801791661447289</v>
       </c>
       <c r="H4">
-        <v>1.570898234158878</v>
+        <v>1.68917721318916</v>
       </c>
       <c r="I4">
-        <v>2.616606779676748</v>
+        <v>2.763488948518692</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.64780801165831</v>
+        <v>13.09471834884095</v>
       </c>
       <c r="L4">
-        <v>7.0862170232692</v>
+        <v>11.87051034388458</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.574110396997334</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.133414652997974</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.32336216398229</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>16.33679526066395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.25235659329556</v>
+      </c>
+      <c r="S4">
+        <v>15.78208740789248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.69381665352281</v>
+        <v>17.56159684152737</v>
       </c>
       <c r="C5">
-        <v>13.87470689102956</v>
+        <v>14.27045003486147</v>
       </c>
       <c r="D5">
-        <v>7.235626251460737</v>
+        <v>7.417075416970616</v>
       </c>
       <c r="E5">
-        <v>11.25759968259313</v>
+        <v>11.42382970647914</v>
       </c>
       <c r="F5">
-        <v>23.35649228806982</v>
+        <v>22.77209439918758</v>
       </c>
       <c r="G5">
-        <v>2.093597442353683</v>
+        <v>2.948044274455309</v>
       </c>
       <c r="H5">
-        <v>1.614008507859891</v>
+        <v>1.632837508756919</v>
       </c>
       <c r="I5">
-        <v>2.576688130380469</v>
+        <v>2.731259735642461</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.65730211017206</v>
+        <v>13.10381048880604</v>
       </c>
       <c r="L5">
-        <v>7.029340000648491</v>
+        <v>11.90186045292102</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.568651594504268</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.080038458732509</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.33950166823386</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>16.25331876708244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.25938181909726</v>
+      </c>
+      <c r="S5">
+        <v>15.69618057634796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.62363106226441</v>
+        <v>17.49412888177087</v>
       </c>
       <c r="C6">
-        <v>13.84158668349258</v>
+        <v>14.23398204317291</v>
       </c>
       <c r="D6">
-        <v>7.222480769167705</v>
+        <v>7.404299982822818</v>
       </c>
       <c r="E6">
-        <v>11.23400365178855</v>
+        <v>11.40122732930793</v>
       </c>
       <c r="F6">
-        <v>23.31513929928742</v>
+        <v>22.73084948400342</v>
       </c>
       <c r="G6">
-        <v>2.093792027440665</v>
+        <v>2.973512282900319</v>
       </c>
       <c r="H6">
-        <v>1.625004952679356</v>
+        <v>1.623168262187817</v>
       </c>
       <c r="I6">
-        <v>2.570990126619324</v>
+        <v>2.727129884547313</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.65274642338172</v>
+        <v>13.09925738974483</v>
       </c>
       <c r="L6">
-        <v>7.019507344822464</v>
+        <v>11.90162725577539</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.564384505523754</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.070810895564963</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.34349905491502</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>16.23251422531485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.26197337516989</v>
+      </c>
+      <c r="S6">
+        <v>15.67482379157387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.04852766311698</v>
+        <v>17.88029783934025</v>
       </c>
       <c r="C7">
-        <v>14.16921782420657</v>
+        <v>14.54859674449909</v>
       </c>
       <c r="D7">
-        <v>7.330517951525104</v>
+        <v>7.521147570634937</v>
       </c>
       <c r="E7">
-        <v>11.40285054367746</v>
+        <v>11.56745056686147</v>
       </c>
       <c r="F7">
-        <v>23.52493484282408</v>
+        <v>22.88819439714739</v>
       </c>
       <c r="G7">
-        <v>2.092513441031624</v>
+        <v>2.875784734276646</v>
       </c>
       <c r="H7">
-        <v>1.569332133802759</v>
+        <v>1.686194829160604</v>
       </c>
       <c r="I7">
-        <v>2.618330130470472</v>
+        <v>2.764578484101004</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.63098659486331</v>
+        <v>13.0592268678371</v>
       </c>
       <c r="L7">
-        <v>7.084567103487608</v>
+        <v>11.83965216744194</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.551476798037844</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.129972102496174</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.32713461615278</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>16.31666960112974</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.26091600739312</v>
+      </c>
+      <c r="S7">
+        <v>15.72181882103737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.82293423532179</v>
+        <v>19.5365528554359</v>
       </c>
       <c r="C8">
-        <v>15.51148027474843</v>
+        <v>15.91188060220844</v>
       </c>
       <c r="D8">
-        <v>7.786307819032695</v>
+        <v>7.992950085895771</v>
       </c>
       <c r="E8">
-        <v>12.11751599250781</v>
+        <v>12.26462276059311</v>
       </c>
       <c r="F8">
-        <v>24.46720677809671</v>
+        <v>23.70357694546329</v>
       </c>
       <c r="G8">
-        <v>2.087048695431992</v>
+        <v>2.573243944765788</v>
       </c>
       <c r="H8">
-        <v>1.874236280285201</v>
+        <v>1.957435892023662</v>
       </c>
       <c r="I8">
-        <v>2.818858388542569</v>
+        <v>2.925389145985642</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.56179207098616</v>
+        <v>12.94465270545892</v>
       </c>
       <c r="L8">
-        <v>7.363772518712808</v>
+        <v>11.62371717945203</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.571473558428461</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.38826527215971</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.25778539663071</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>16.71426046222458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.25082657234057</v>
+      </c>
+      <c r="S8">
+        <v>16.0350405497017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.91077464346427</v>
+        <v>22.48333784301657</v>
       </c>
       <c r="C9">
-        <v>17.83239942970719</v>
+        <v>18.38373646599166</v>
       </c>
       <c r="D9">
-        <v>8.609562398195266</v>
+        <v>8.813416200638969</v>
       </c>
       <c r="E9">
-        <v>13.40676789095667</v>
+        <v>13.51409996206582</v>
       </c>
       <c r="F9">
-        <v>26.31665636613428</v>
+        <v>25.46341512589607</v>
       </c>
       <c r="G9">
-        <v>2.076980840733361</v>
+        <v>1.889390866122053</v>
       </c>
       <c r="H9">
-        <v>2.431586405333682</v>
+        <v>2.457222158630397</v>
       </c>
       <c r="I9">
-        <v>3.188874684672385</v>
+        <v>3.226110286440157</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.49815996988263</v>
+        <v>12.83955755344263</v>
       </c>
       <c r="L9">
-        <v>7.879072726576918</v>
+        <v>11.2953727302338</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.845005743388568</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.872533369380971</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.13829577488041</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>17.55141233286957</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.23128254214222</v>
+      </c>
+      <c r="S9">
+        <v>16.82536183330067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.87648554267754</v>
+        <v>24.26680577492369</v>
       </c>
       <c r="C10">
-        <v>19.32887721343081</v>
+        <v>19.8084673246453</v>
       </c>
       <c r="D10">
-        <v>9.083471653976661</v>
+        <v>9.342312203602953</v>
       </c>
       <c r="E10">
-        <v>14.05893962656633</v>
+        <v>14.16139487837464</v>
       </c>
       <c r="F10">
-        <v>27.44980265802725</v>
+        <v>26.26889980791981</v>
       </c>
       <c r="G10">
-        <v>2.070140569327442</v>
+        <v>3.977503427043092</v>
       </c>
       <c r="H10">
-        <v>2.80097383627371</v>
+        <v>2.779178189502003</v>
       </c>
       <c r="I10">
-        <v>3.444658076471469</v>
+        <v>3.427888404054793</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.42279822171086</v>
+        <v>12.62237938148775</v>
       </c>
       <c r="L10">
-        <v>8.126363270068111</v>
+        <v>10.95769084857061</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.002287434069636</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.090558219493447</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.0837659262125</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>18.07969276626186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.28532301127687</v>
+      </c>
+      <c r="S10">
+        <v>17.10041037750708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.32378543453895</v>
+        <v>24.5174165135235</v>
       </c>
       <c r="C11">
-        <v>19.47830307161601</v>
+        <v>19.593950668993</v>
       </c>
       <c r="D11">
-        <v>8.509720698747619</v>
+        <v>8.872942337319913</v>
       </c>
       <c r="E11">
-        <v>12.4484536438137</v>
+        <v>12.5755053310833</v>
       </c>
       <c r="F11">
-        <v>26.36999242203711</v>
+        <v>24.67211386103542</v>
       </c>
       <c r="G11">
-        <v>2.068429950081091</v>
+        <v>7.829109583713385</v>
       </c>
       <c r="H11">
-        <v>3.479097014093324</v>
+        <v>3.441951072252521</v>
       </c>
       <c r="I11">
-        <v>3.517325194085124</v>
+        <v>3.476068158976325</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.94323527630206</v>
+        <v>11.97726510625272</v>
       </c>
       <c r="L11">
-        <v>7.347959271210361</v>
+        <v>10.46101482059054</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.576050337969551</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.2918384056083</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.21513474682368</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>17.51566253907598</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.53348219324643</v>
+      </c>
+      <c r="S11">
+        <v>16.11885106810388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.32129231095632</v>
+        <v>24.4417470150765</v>
       </c>
       <c r="C12">
-        <v>19.25981332923671</v>
+        <v>19.18084355382769</v>
       </c>
       <c r="D12">
-        <v>7.918991234367012</v>
+        <v>8.321817252934418</v>
       </c>
       <c r="E12">
-        <v>11.00518151404453</v>
+        <v>11.13478428632482</v>
       </c>
       <c r="F12">
-        <v>25.23238272710897</v>
+        <v>23.32914924571843</v>
       </c>
       <c r="G12">
-        <v>2.068287040943387</v>
+        <v>9.689319601577095</v>
       </c>
       <c r="H12">
-        <v>4.568727006492823</v>
+        <v>4.537128168016515</v>
       </c>
       <c r="I12">
-        <v>3.524741875027078</v>
+        <v>3.476550009922057</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.57772750780228</v>
+        <v>11.57804870831875</v>
       </c>
       <c r="L12">
-        <v>6.721551472187184</v>
+        <v>10.18849653488558</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.256212400293189</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.661726150053465</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.33919000729872</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>16.94175453273493</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.71327948607929</v>
+      </c>
+      <c r="S12">
+        <v>15.38045556078091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.95287564955194</v>
+        <v>24.12827697733515</v>
       </c>
       <c r="C13">
-        <v>18.77487372581871</v>
+        <v>18.68197517837109</v>
       </c>
       <c r="D13">
-        <v>7.27445482650684</v>
+        <v>7.648002089746051</v>
       </c>
       <c r="E13">
-        <v>9.607105590091249</v>
+        <v>9.716741297786053</v>
       </c>
       <c r="F13">
-        <v>23.92754753843845</v>
+        <v>22.14795357848097</v>
       </c>
       <c r="G13">
-        <v>2.069368194788221</v>
+        <v>9.246366973489742</v>
       </c>
       <c r="H13">
-        <v>5.783503659768968</v>
+        <v>5.763250367924646</v>
       </c>
       <c r="I13">
-        <v>3.485633479352616</v>
+        <v>3.446727125206829</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.25269944704883</v>
+        <v>11.34899403313634</v>
       </c>
       <c r="L13">
-        <v>6.19089882325243</v>
+        <v>10.05485238437707</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.017446362305288</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.142557356921211</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.46711505526731</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>16.290218847283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.82861076693599</v>
+      </c>
+      <c r="S13">
+        <v>14.83166126386529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.5201274310263</v>
+        <v>23.79106544979766</v>
       </c>
       <c r="C14">
-        <v>18.315196908739</v>
+        <v>18.29068317032907</v>
       </c>
       <c r="D14">
-        <v>6.796894592298601</v>
+        <v>7.121187311347716</v>
       </c>
       <c r="E14">
-        <v>8.681409787491562</v>
+        <v>8.769902688909701</v>
       </c>
       <c r="F14">
-        <v>22.92446425596449</v>
+        <v>21.37199910402434</v>
       </c>
       <c r="G14">
-        <v>2.070675873677375</v>
+        <v>7.913205932334703</v>
       </c>
       <c r="H14">
-        <v>6.678368993752994</v>
+        <v>6.666119271641029</v>
       </c>
       <c r="I14">
-        <v>3.438255179112714</v>
+        <v>3.413207904179637</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.04222810148287</v>
+        <v>11.2549169012209</v>
       </c>
       <c r="L14">
-        <v>5.893017449956775</v>
+        <v>10.01261159635393</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.882082533135192</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.858733826766011</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.55942812512104</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>15.79195099987135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.88011164950507</v>
+      </c>
+      <c r="S14">
+        <v>14.51830352665999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.32924918978411</v>
+        <v>23.64829548730238</v>
       </c>
       <c r="C15">
-        <v>18.15373860736832</v>
+        <v>18.17940319027769</v>
       </c>
       <c r="D15">
-        <v>6.669816339280128</v>
+        <v>6.970642854719719</v>
       </c>
       <c r="E15">
-        <v>8.460241144007478</v>
+        <v>8.542517411331159</v>
       </c>
       <c r="F15">
-        <v>22.63811846768061</v>
+        <v>21.20016889113312</v>
       </c>
       <c r="G15">
-        <v>2.071276604624994</v>
+        <v>7.149719430823755</v>
       </c>
       <c r="H15">
-        <v>6.882055966265649</v>
+        <v>6.872576719637243</v>
       </c>
       <c r="I15">
-        <v>3.41755964991866</v>
+        <v>3.399689028070434</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.99507519003527</v>
+        <v>11.25667824089228</v>
       </c>
       <c r="L15">
-        <v>5.830048952897279</v>
+        <v>10.02209687240084</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.858862559516421</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.801444154201265</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.58332552382098</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>15.6492071655727</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.88050104964341</v>
+      </c>
+      <c r="S15">
+        <v>14.46810492725676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.56513404067598</v>
+        <v>23.09310996757695</v>
       </c>
       <c r="C16">
-        <v>17.61672922294461</v>
+        <v>17.91909612674436</v>
       </c>
       <c r="D16">
-        <v>6.570130715422989</v>
+        <v>6.777650937356329</v>
       </c>
       <c r="E16">
-        <v>8.400740616182736</v>
+        <v>8.477539892478546</v>
       </c>
       <c r="F16">
-        <v>22.35651459733305</v>
+        <v>21.40712891376023</v>
       </c>
       <c r="G16">
-        <v>2.073974774363523</v>
+        <v>3.573197711480865</v>
       </c>
       <c r="H16">
-        <v>6.604698674294891</v>
+        <v>6.605659665992373</v>
       </c>
       <c r="I16">
-        <v>3.318589805103114</v>
+        <v>3.331979521834897</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.08591149931323</v>
+        <v>11.51574808642628</v>
       </c>
       <c r="L16">
-        <v>5.816525385918115</v>
+        <v>10.23320767335339</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.972305546370194</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.807917293753118</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.57137248548469</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>15.52576771428303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.75546268927068</v>
+      </c>
+      <c r="S16">
+        <v>14.73569530477389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.20718074439572</v>
+        <v>22.82012491632607</v>
       </c>
       <c r="C17">
-        <v>17.4546682591428</v>
+        <v>17.89222200211647</v>
       </c>
       <c r="D17">
-        <v>6.754388682925727</v>
+        <v>6.927630277408611</v>
       </c>
       <c r="E17">
-        <v>8.838761616003389</v>
+        <v>8.919517398089633</v>
       </c>
       <c r="F17">
-        <v>22.68705436372625</v>
+        <v>21.93089599446107</v>
       </c>
       <c r="G17">
-        <v>2.075360767538894</v>
+        <v>2.144823885782881</v>
       </c>
       <c r="H17">
-        <v>5.865812275951498</v>
+        <v>5.872317387069667</v>
       </c>
       <c r="I17">
-        <v>3.267738011468671</v>
+        <v>3.29647847988107</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.26552686907673</v>
+        <v>11.74817602484932</v>
       </c>
       <c r="L17">
-        <v>5.950439274768697</v>
+        <v>10.41775633683122</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.108607786277958</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.949688116257025</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.5149975023409</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>15.70104843958363</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.64915135131202</v>
+      </c>
+      <c r="S17">
+        <v>15.06372322471785</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.18289414706718</v>
+        <v>22.81565832615314</v>
       </c>
       <c r="C18">
-        <v>17.58478390801277</v>
+        <v>18.10809688626262</v>
       </c>
       <c r="D18">
-        <v>7.207471201485549</v>
+        <v>7.371870484211166</v>
       </c>
       <c r="E18">
-        <v>9.845727335510491</v>
+        <v>9.930004231714786</v>
       </c>
       <c r="F18">
-        <v>23.59547364222578</v>
+        <v>22.8956587513223</v>
       </c>
       <c r="G18">
-        <v>2.075696463809806</v>
+        <v>1.67950375275965</v>
       </c>
       <c r="H18">
-        <v>4.694821390458217</v>
+        <v>4.705114154347507</v>
       </c>
       <c r="I18">
-        <v>3.251161779674276</v>
+        <v>3.283873764398769</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.55496648191746</v>
+        <v>12.03231021589103</v>
       </c>
       <c r="L18">
-        <v>6.304204182210552</v>
+        <v>10.63011013152401</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.320323487050453</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.304047918547477</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.41244056792356</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>16.16301866068089</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.52673403507913</v>
+      </c>
+      <c r="S18">
+        <v>15.56913085317273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.40322367739168</v>
+        <v>23.01666035804036</v>
       </c>
       <c r="C19">
-        <v>17.98499027034235</v>
+        <v>18.57231770079926</v>
       </c>
       <c r="D19">
-        <v>7.85408805233989</v>
+        <v>8.022819189750791</v>
       </c>
       <c r="E19">
-        <v>11.32292513224925</v>
+        <v>11.40874659651367</v>
       </c>
       <c r="F19">
-        <v>24.85389772085717</v>
+        <v>24.13536186230341</v>
       </c>
       <c r="G19">
-        <v>2.075117201222874</v>
+        <v>1.65693032904081</v>
       </c>
       <c r="H19">
-        <v>3.443964136714296</v>
+        <v>3.456569444592638</v>
       </c>
       <c r="I19">
-        <v>3.272302977188538</v>
+        <v>3.302303539448203</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.88851006211836</v>
+        <v>12.32909627017621</v>
       </c>
       <c r="L19">
-        <v>6.899768261567965</v>
+        <v>10.84243644311561</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.568586723247246</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.895306790210343</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.29412261436021</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>16.78560632497756</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.40664272738567</v>
+      </c>
+      <c r="S19">
+        <v>16.17624476538773</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.33204916504793</v>
+        <v>23.82676387047475</v>
       </c>
       <c r="C20">
-        <v>19.01800934059234</v>
+        <v>19.61660317574161</v>
       </c>
       <c r="D20">
-        <v>8.971143617708156</v>
+        <v>9.181715326112066</v>
       </c>
       <c r="E20">
-        <v>13.88593831943233</v>
+        <v>13.97745506961212</v>
       </c>
       <c r="F20">
-        <v>27.0810231164813</v>
+        <v>26.14403483143</v>
       </c>
       <c r="G20">
-        <v>2.071969969318207</v>
+        <v>2.540401277200391</v>
       </c>
       <c r="H20">
-        <v>2.701732629666503</v>
+        <v>2.697290325531666</v>
       </c>
       <c r="I20">
-        <v>3.385558756832556</v>
+        <v>3.390540575888475</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.3860996576448</v>
+        <v>12.69239227747104</v>
       </c>
       <c r="L20">
-        <v>8.055302386957793</v>
+        <v>11.05397784558564</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.968960822502737</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.032828020894039</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.11112527161218</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>17.88238527406117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.26419548196383</v>
+      </c>
+      <c r="S20">
+        <v>17.09951874424876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.84143399987332</v>
+        <v>24.90413297604934</v>
       </c>
       <c r="C21">
-        <v>20.19397458219587</v>
+        <v>20.2377831309825</v>
       </c>
       <c r="D21">
-        <v>9.460712837195512</v>
+        <v>9.892223832337342</v>
       </c>
       <c r="E21">
-        <v>14.71253044342692</v>
+        <v>14.86742697103841</v>
       </c>
       <c r="F21">
-        <v>28.23251620615469</v>
+        <v>26.21981422401753</v>
       </c>
       <c r="G21">
-        <v>2.066577488126122</v>
+        <v>9.509532372449236</v>
       </c>
       <c r="H21">
-        <v>3.00389051638631</v>
+        <v>2.939270846505964</v>
       </c>
       <c r="I21">
-        <v>3.585060623723126</v>
+        <v>3.525661841504642</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.42586680774349</v>
+        <v>12.26899619036872</v>
       </c>
       <c r="L21">
-        <v>8.407245969050464</v>
+        <v>10.63979840584642</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.869680301936922</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.333550217154556</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.04803200347599</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>18.44295797563309</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.40286606644804</v>
+      </c>
+      <c r="S21">
+        <v>16.78651983674464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.77650843127067</v>
+        <v>25.55136437061514</v>
       </c>
       <c r="C22">
-        <v>20.87378739028421</v>
+        <v>20.53449689383695</v>
       </c>
       <c r="D22">
-        <v>9.719610727184929</v>
+        <v>10.3055432800764</v>
       </c>
       <c r="E22">
-        <v>15.12091693542295</v>
+        <v>15.32355130045745</v>
       </c>
       <c r="F22">
-        <v>28.90898785142485</v>
+        <v>26.14931699676513</v>
       </c>
       <c r="G22">
-        <v>2.063177260546269</v>
+        <v>14.56413963882924</v>
       </c>
       <c r="H22">
-        <v>3.189347441981258</v>
+        <v>3.087299125109349</v>
       </c>
       <c r="I22">
-        <v>3.707935088597508</v>
+        <v>3.606844810095331</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.45488854461749</v>
+        <v>11.96924506857679</v>
       </c>
       <c r="L22">
-        <v>8.577837609855681</v>
+        <v>10.37072203116056</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.783738158526464</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.470980558526726</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.01202133579732</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>18.78576824829487</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.51579159909259</v>
+      </c>
+      <c r="S22">
+        <v>16.51598581965827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.29668122708297</v>
+        <v>25.26364300811956</v>
       </c>
       <c r="C23">
-        <v>20.48697984979021</v>
+        <v>20.42017104083319</v>
       </c>
       <c r="D23">
-        <v>9.577150226347934</v>
+        <v>10.05600721823121</v>
       </c>
       <c r="E23">
-        <v>14.9023562954801</v>
+        <v>15.06977967004884</v>
       </c>
       <c r="F23">
-        <v>28.5724614482181</v>
+        <v>26.32286000859093</v>
       </c>
       <c r="G23">
-        <v>2.064967966787393</v>
+        <v>11.07093502005723</v>
       </c>
       <c r="H23">
-        <v>3.091411314776215</v>
+        <v>3.011666299844253</v>
       </c>
       <c r="I23">
-        <v>3.639668608989027</v>
+        <v>3.561857204090065</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.45855807337386</v>
+        <v>12.19260694937832</v>
       </c>
       <c r="L23">
-        <v>8.488028980681655</v>
+        <v>10.55136596747414</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.8891099102989</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.402371163057374</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.02562780872875</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>18.62239884929931</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.43111990976753</v>
+      </c>
+      <c r="S23">
+        <v>16.77167788356336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.36658993252907</v>
+        <v>23.86191127739997</v>
       </c>
       <c r="C24">
-        <v>19.00527133465872</v>
+        <v>19.61363584344029</v>
       </c>
       <c r="D24">
-        <v>9.028791421855455</v>
+        <v>9.238338194677469</v>
       </c>
       <c r="E24">
-        <v>14.05004049496082</v>
+        <v>14.14120466214863</v>
       </c>
       <c r="F24">
-        <v>27.24383796828143</v>
+        <v>26.31134071741029</v>
       </c>
       <c r="G24">
-        <v>2.071903207531125</v>
+        <v>2.502977239733485</v>
       </c>
       <c r="H24">
-        <v>2.711506014094601</v>
+        <v>2.706932203245447</v>
       </c>
       <c r="I24">
-        <v>3.38148800233052</v>
+        <v>3.384456584203265</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.45481861016445</v>
+        <v>12.75786407845607</v>
       </c>
       <c r="L24">
-        <v>8.137800564005438</v>
+        <v>11.10083528351476</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.022483505223702</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.115236994030163</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.09198894836301</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>17.97611975740121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.24241368187119</v>
+      </c>
+      <c r="S24">
+        <v>17.19667485940442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.09326458025572</v>
+        <v>21.7273638022223</v>
       </c>
       <c r="C25">
-        <v>17.27936048907026</v>
+        <v>17.83592236841482</v>
       </c>
       <c r="D25">
-        <v>8.402477469430703</v>
+        <v>8.59212473654431</v>
       </c>
       <c r="E25">
-        <v>13.07327940383558</v>
+        <v>13.18545515966612</v>
       </c>
       <c r="F25">
-        <v>25.7820839054454</v>
+        <v>25.02170862577538</v>
       </c>
       <c r="G25">
-        <v>2.079665493245395</v>
+        <v>1.524672394711517</v>
       </c>
       <c r="H25">
-        <v>2.283984934414256</v>
+        <v>2.327095697087534</v>
       </c>
       <c r="I25">
-        <v>3.094766531518557</v>
+        <v>3.153815834992584</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.48003639293261</v>
+        <v>12.86276119067711</v>
       </c>
       <c r="L25">
-        <v>7.742047216693114</v>
+        <v>11.38128103936859</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.751105222878067</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.746038694887676</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.17542330153854</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>17.29037193758241</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.2342777889469</v>
+      </c>
+      <c r="S25">
+        <v>16.63318431984636</v>
       </c>
     </row>
   </sheetData>
